--- a/crawfordCountyData/data/xls/USFSCrawfordCounty.xlsx
+++ b/crawfordCountyData/data/xls/USFSCrawfordCounty.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="3640" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="3280" yWindow="1720" windowWidth="30320" windowHeight="17600" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="OverallCovertype" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="53">
   <si>
     <t>All live stocking</t>
   </si>
@@ -266,6 +266,1799 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ownership of Black Walnut-Dominated</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Forest in Crawford County </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OwnershipClass!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black walnut</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>OwnershipClass!$H$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>National Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>State</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Private</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OwnershipClass!$H$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1653.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2070314400"/>
+        <c:axId val="-2070140176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2070314400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2070140176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2070140176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2070314400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crawford County Forest Type by Acreage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PrimaryDisturbance!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Shortleaf pine</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eastern redcedar / hardwood</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Post oak / blackjack oak</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>White oak / red oak / hickory</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>White oak</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Black walnut</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mixed upland hardwoods</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>River birch / sycamore</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sycamore / pecan / American elm</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sugarberry / hackberry / elm / green ash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PrimaryDisturbance!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>791.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4840.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40352.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125485.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88887.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1653.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13624.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1416.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12651.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2120934976"/>
+        <c:axId val="-2080968096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2120934976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2080968096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2080968096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2120934976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1578,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1592,12 +3385,12 @@
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +3407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1630,8 +3423,17 @@
       <c r="E3" s="2">
         <v>228859</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1647,8 +3449,20 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1665,7 +3479,7 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1682,7 +3496,7 @@
         <v>30341</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1699,7 +3513,7 @@
         <v>102713</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1716,7 +3530,7 @@
         <v>61048</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +3547,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1750,7 +3564,7 @@
         <v>13624</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1767,7 +3581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1784,7 +3598,7 @@
         <v>12651</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +3615,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2017,6 +3831,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3712,7 +5527,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4290,5 +6105,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>